--- a/Testdata/TC_33.xlsx
+++ b/Testdata/TC_33.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NRwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkvJlvcaYgW52hEqWIcn1Oi/FiBxbrMmhyhna1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FNkrOWuzDWnHObM2fOdYzeuQ4D45LEzI/oXsWuWRWDUDfyfHq+V0n4WdXerrzjoM61S4IjHOOQcCA2gIuy3Wvm71WmnM92TfPq6qp2tVGL4nOzblm2+aTfG7lTEuKqTxnH1CWVjMt7O1fFQS0v7BOOPcyx4tyrdEfdWov4bhtgfUzxOYlrzYT5lDDWodznPmGCMyaYk1a7/z11MKde267ZyFyC55TNxA88RVeiVHBNB9uSsR8Sp27ZO1Vrp7phj61Hu/b27qZVq29uvZcyZoSohxkfkfjSdyVgxHE4k+zWzoZtPbK3Ny1kriQCWbkBHDQIvCG59BnxWiQI2FoWMfUFNlwOp17PmKBegVcLergKBzGeTcc+D8h6agz7TSOkWpdciIP2o5i4YL8HqXRIrgaxNut41gPseOrHfN7G87VlHTMSD2bCSOuxOqgdUd4ISMyPZ3DXxANXAITD44Qg8w5kztT2mQvfPk2I55zhgBWZSkh0EsUXbIZdcghxbAoZVzSIsAcOx33GfZflApYw6CiOZiASdm9GgbcPYrWKKxCZ6C4FG4t9m1F0sSi9jETyWuUFw6WGmKfkS3A0mkZXAxrMR8mEubE/IV67mVKvxCERkZq7lTAehaBFDkIKVoDM4R9E4CIYtYnrhzg4CsCKzNkAKSUAaiQ8OvN5KwqSkGbmXICiEzjRmFxnJ8zWaAC3S4XRI9qlKb0y80pUmWEYXWV7LiOkEQrgBnNTJ1tGLBK3AZZe3zJG3og45b4fQIEo3kUBWvaK0ZQQvtIlFAaJXLgvSo7TCAJk5ksEbgm+DWo4FlSNqvwZW9au/IFtMzTqUO9uuhSJDpNwMIH4vZQHcmzALYAQHCFoBpheAPTE59PDRqr6CgxSB76TfhmHIFJnAZ5LcGaUIgx1qRskHlEJoEvPpEcK3dQd3olGS6AehLSDMJ2P5zPIw8zf5fCxV4HKvMt4DLW/4rhRQnk8F5kCmZr0bTwsmVC5AQ7uzXMWkx8m0HLM9xPqtiLv/rt5yjrH1Of31zBKYpX+7s8irScSYcLaRKQUmeTvze+ucyYWr0UeUhJG1Hfvb20wstDee8BBWBpVBQ7zDt9qkzOcBNDUcKg953lZWQCjBrtYpCmC0HEcpJnBES0jg57R9cKaC1VV9EU1NwoFwIRW7WSEzCK9aA1c0qHnPUzPEyi+WQAuwrO8JOrGOMaUieNktXYhRa0mQmlAqx7AKcYuMheQaEzCWRTjoA/W8Pf1pejuAQpzH/OpXkGiD4ibWtbMWTOusjqptm8jkxlb6S7CQSeRBaAkEleuWtKcJochkcD64LRBCwf+JFY5J61rq3BwS3mrlGYncbg126bU8DCWQCn6LpmLXjVfaLj0UztFKK8VacYZDTd36lvWRh3KvFgjeeIhwYHRAVfnxOjSS8J4CGy7xpAw34MvHwe7xrtkQnwoEdJE+qLX5i7yof00C0pVGqBvGVImgOJ77kOSXSbMMDmDc0pwHMwLhOqovcgFutsf//vmN89fvfj89uOnb7784L//+NWrf/7s5tmH8HH717/dfPJLdUxFjMZ4EhCp0Li5s2NtbIKfZSAkjGvKPtFLXC5hp6eyPczWSI85ctHqdFsHvaZMIhkwZVcJ1xQT1DxK8uVIHUJuJK/UTD1BkTjjNCnpdQlbSOCOmGguSZm6iL+LUdni9cvPX7/8853c2mB5J2I/frxVtetvbVRgNrSX6LJGRUyKahBI59DNqrVVrdcLxAs0aAjjNPT9mZ26ngOj52OrvmHZWQL3MkdeRbSI0pLG+Nxc4FOglmoeMhcorlOkdPwxhEiGVqFQWGgX/fInb/7ytESlrashZSmgnCzyYjMzXUjRh8OxMRocD1sdY9wZCT/JcQU6JfwbiPXuWTyVnIrSBAffMQgVTyhGBcaDihGdGQS7U2MOkViIw5KzrYKqjR4oclHLgzhKZupGCgw5dAVllk1WcqzINRIn7bmUdHLUCnKl683fv1jFoA/Sztu97DWgCEMljAIV8DpqP/vXq68+evXixe3zn9989aOSBL1PNiSDn0M0FZeZ20PK0/VmAYJORtKYF9b3C/VFA8WYcRT5lDPH3pYThl4hYLWFNPkbdUMoeVKwtBfAFyDoXcw611wHtnOIzDIA9JxhqLZRPohlAJXDc7v+57e/u/31F7efPn/z0Z9uPv7jzSefvn75+zfP/qCi7vbp89ufPtNZfrEQSF3EeKc6P0M+FriGiEZD1G7j6/d/YdCIG9ByGInMSF+//1lBmFBUNie5ZOjjMkXKKiyRFpkFn1FQJdOhxJexqAagJUrYRkahi1g08918k/eqQpSIO4n4VndcTRgxIuimvg0nKRPnzPfl0yyqpB49sup2XWOVNuIIE8wKpj8Iogk0GSlCTuMLJCWub2bIaeV+B71Bs9HLSZQSg9iD4d0STwriA6UtpSgpXZauUlcrQAALjZ+bBOIBZYlsGZVJLqQxU79EnDU8kf5WD/IlCtRK4lg1RFS/bI+SGTTD6XvV3Xj5iFfofw9Vr1rsiPN1t13Gw7qAhUJYRguAxMvUpFEqTXWZePRQ7eyhME2+BFzp4Q/MoR+vVad1CX1lbIq804njKF6ZfHJMStaHThoyiplbPKORd6q6bi+/qxSQJrzsQ417+oRRmwSEr/eya+bc/ejywbxw9+uydtkg8LQx1xs9MrPkAorP28JR/t/XbeVsjTiGxkq8hq39HJ1Oq0MYctfURh1FMooJEHbX78X7fsz4E5EJ9JeCnGaQU9WhPhEDl/qQ61OnvqMAQGAWpZslNdPQ5eqPDFHQ80N/zbHQSuO7LARsOZupFq67nqeI0nJIrqHBLEiApDj5AZQN9VyyjjTlsJBLM37xssf88ylfV7FHE0w8MrGq7oTUq5uetVN9TMhG1bbhf+zW65a1Jd4FtXDIHD65WnMTM72w/I9/zv8AhF4YZzUcAAA=</t>
+          <t>Lh4AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCpe5BSZaE9QUUSTlEqQdEurbypVjeLaWtjnvs7Z4kfkuBFinSFEVROEX6RD+lKFDXaBMgtfv4XwJLcT/1X+js414kFetUQ4BvZ+Y3Ozs7OzO7RO9cTSPrgiScxuxhw11zGhZhQRxSdvqwkYpJ091svOOj3lVAoiOc4CkRIGwBivGdK04fNs6EmO3Y9uXl5dplay1OTm3PcVz76f5gGJyRKW5SxgVmAWnkqPDtqIaPOuF0nwgcYoE18mGjP+yvdQgNukDbxwyfkmRtN+WUEc57TFBBCZfIhGBBOt397+iF+d7a5pqL7CV6Ibmb0ijUchVJTTdyMC0Z0SnxPcdzms5W01sfue6Ot73jbKxtbXnvZcBcEA0wF0OSXNBAEYYCT2cK7mx5667rbTsbyF4pBLoKB/joMAqPyQXlJOyQKOK1PGKbDWwHAlZdz5kOsktYo+j+JjxK8OxsREVE6sL34oQE4Kh7zX1ALg8T47/RbADc0RlNxLyL57V1PeYkOZxJb9SD+qgbM9GOSCIez2BTSQh7DgxfJClB9i3MAtSlPIBvylIS+hMc8TKowkRP4uScz3BADuDA2lLHJYtiHEJkCcoFDXihYImDjpJ4Biph9t04CvdArTFxBSNX3WfgYznvbhyfL2qvMpEKAhUOsKlTLDLxJToansWXhyyaD9MxDxI6JmF3N5NeyUPy6Bl0J+UinoIVBQlpWokyh39w1BbJqEsCOsXRUQRe5H4LtFQIqJ2KeEJFJ47SKcvduUBFT2BFI3KVrzAfo0PYXSadHrM+y+S1m1eyqoDj+DKfc5mhnFAit3mQBdkyY1G4C7Rs+5Y5akfkKvdoBJWgvBclajUqhmeEiJUhoTlIJr09WVv8dhQhuxgiCEuIbTDDd6A8NNXfyHF21B9Mm7NRj4W3y2VMdJBOD8dwfi/UgnwXeAskBEuIdiPMzoH6hIqzg3Zm+goO0gu+VX6Zh+CkziI8V+TcKWUa6rMgSkOiE0CfTVREStv0Ht7KRkukARxpH2E2H81nkHA53RHw8bABJXiHiwSKfMMP4pSJZC4zBbKN6NswPB0zNQGO7oyZJOT7KfQW872UBZ04vPtsofbOY0bF3S2M00Snv7tDlPdkIkx5l8iUopL8nfFBnTXxpJb4lJFpzGhwd2+Dk6X14T0WwrNTVULYt8RWl0xwGkH3IqD2nBZlZYGM2vx8UaZMQo+TKMsMvuwNOTSHQThdC6CqygZoLYinkmBDT/ZkiOyyvGwNAtJjpwPMTlMovvkBXKTneUnWjVGCGZfLyWvtQopaLYSyA617AL98dpG9wEQjMp3FCY72wRt0z2yK6R6gMO9jcWZGkOgjEmSetQtojqqak1n7NjGVsbXt8jiYJLJAVEJyy3XvWcgUNCQT2D4EbdTBER0nOudkdW0VD3apaJWy7CQXV7NtyhwP9w8oRd8mc9mUFgNDV3HqZgwdtTLN+MPj9S1vw2l5UOblGKkVHxMcWT0IdUGsPrsgXEwBtmMdE05D+KI42rHeJWNCoUQoF5mNro0u49BelgWVKW2wt0qpCkDxPaWQZJcFc04B8E8ITqJ5SVAvdRAHIHfz439f/+bF65ef3nz47M3nP/zvP371+p8/u37+I/i4+evfrj/6pV6mFkYjPI6IMmi0u7XltNYhznISks61VZ8YpoFQtJMT1R7mY2TuM2rQ6fU7jwa7KonkxAyuE64tr0rzOC2GQ70INZHaUjuLBC3ij7KkZMYVbimB+/LqckGq0mX+bUDti69effrVqz/fijYOKzoRd3t7o+l6b21UPMd1l+TyRkVeCfVFwFw43fWms9H0vJLwggw6hnsz9P25n/qh33KdbcdrOW6ewMM8kFcJLbKMphE+tRdwmtTRzUMeAuVxxlSBP4IjkrP1USgNTIh+/pM3f3lWkTLeNZSqFjBOFXk5mZ0NlOqD45E1PHx83OlZo95QxknBK8lp5V8jbGbPz1MlqBhLcfQtizD5VmI14HrQsOKJRXBwZs3hJJbOYSXYVlH1RPdUuWjloyROZ3pHSoCCukIyzyYrEStyjeIpfy4lnYK1Qlzbev33z1YBzEK6RbvnH+/vWlOWx6WioQpHk0p8c2o/+dfrLz54/fLlzYufX3/xg4oGM09+SYY4h9NUHuZhDynP1JsFCnoyVM48d75bqi+GKK8ZRzFlgvvuprphmBECqCu1qf9RfwolTylW/gL6AgW9i3nvSpiD7R8gu0oAO2cYqm1cXMRygs7hhV//89vf3fz6s5uPX7z54E/XH/7x+qOPv3r1+zfP/6BP3c2zFzc/fW6y/GIhULbI653u/Cz1WBBY8jRasnZbX77/C4vFwoKWw0pVRvry/U9KyqShqjkpNEMflxtSNWFJtAyWOKtkSm5DBZdDdAPQkSWslUuYIhbPaFBM8l5TqpLnTjG+0R81U06sGLqpb8JKqsIF+K44A9El9eiB47me4Wpr5BLGmJdc/yiKx9BkZAx1G18QqaC+HlDIqvkeDQ5324NCRBtxmIRweXfkk4L8QH2eNZVZeJUowIVmL0gj+WiyJLbMQtlXKXXZ5vVh0g5lylt9ea9IoE6aJLoJYubZepjOoAHO3qhu56uHu1LPe6D703IXXIz73SofxiUuFL8qWxIUX6Ujw9Kpqc/lQ4duYQ+ka4oh8CqPfeAO8zKtu6sL6CUTW+aaXpLEycqEU3AysX3oniGL2IXHcxlbTqk77bDYq4yQJbn8Q1/xzArjLomIqP1sm6H344t7Y2Hv60L7/DAKjTPrXTdytxQKym/XMlDqGtNOEmib5FtX7cfmAWXn/Xqr98kYtx6M193NbbJOWhvYDcj6VrC5PnkwnjhENo5Kqbx9ShXy5iLvbvUmgWaxCi8u18dw3a6pTTtYAeVdFDylDqRJ7PkY7dGEi6cyRZkvTTnJKSe6dX4q7dMfanzie1uaAAJ2eTK7YnWWX4T+mSOOBnRKa95XnSwJVZVAGMxmuresu6FQ8w7IFXS+JQ2Qrcffg3qm33HqaNOnCpJ8js90DdNxbXV2Bj4Cvgys+6F7IfRl90er3wxo9H8YoDqv+6roM05Pz0TdffW2t1tkk3hNbxIEzXUYNKEaj5shnmy7jjNphRuefO81yqE6UHJZcxJZUyiHe0V9nL3wq6//P1wX758uHgAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -671,4 +671,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>29</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6EFE0-38F4-4AF3-AED5-7BAF8B27D61B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_33.xlsx
+++ b/Testdata/TC_33.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Lh4AAB+LCAAAAAAAAAOlWetvG8cR/1cO/NQCpe5BSZaE9QUUSTlEqQdEurbypVjeLaWtjnvs7Z4kfkuBFinSFEVROEX6RD+lKFDXaBMgtfv4XwJLcT/1X+js414kFetUQ4BvZ+Y3Ozs7OzO7RO9cTSPrgiScxuxhw11zGhZhQRxSdvqwkYpJ091svOOj3lVAoiOc4CkRIGwBivGdK04fNs6EmO3Y9uXl5dplay1OTm3PcVz76f5gGJyRKW5SxgVmAWnkqPDtqIaPOuF0nwgcYoE18mGjP+yvdQgNukDbxwyfkmRtN+WUEc57TFBBCZfIhGBBOt397+iF+d7a5pqL7CV6Ibmb0ijUchVJTTdyMC0Z0SnxPcdzms5W01sfue6Ot73jbKxtbXnvZcBcEA0wF0OSXNBAEYYCT2cK7mx5667rbTsbyF4pBLoKB/joMAqPyQXlJOyQKOK1PGKbDWwHAlZdz5kOsktYo+j+JjxK8OxsREVE6sL34oQE4Kh7zX1ALg8T47/RbADc0RlNxLyL57V1PeYkOZxJb9SD+qgbM9GOSCIez2BTSQh7DgxfJClB9i3MAtSlPIBvylIS+hMc8TKowkRP4uScz3BADuDA2lLHJYtiHEJkCcoFDXihYImDjpJ4Biph9t04CvdArTFxBSNX3WfgYznvbhyfL2qvMpEKAhUOsKlTLDLxJToansWXhyyaD9MxDxI6JmF3N5NeyUPy6Bl0J+UinoIVBQlpWokyh39w1BbJqEsCOsXRUQRe5H4LtFQIqJ2KeEJFJ47SKcvduUBFT2BFI3KVrzAfo0PYXSadHrM+y+S1m1eyqoDj+DKfc5mhnFAit3mQBdkyY1G4C7Rs+5Y5akfkKvdoBJWgvBclajUqhmeEiJUhoTlIJr09WVv8dhQhuxgiCEuIbTDDd6A8NNXfyHF21B9Mm7NRj4W3y2VMdJBOD8dwfi/UgnwXeAskBEuIdiPMzoH6hIqzg3Zm+goO0gu+VX6Zh+CkziI8V+TcKWUa6rMgSkOiE0CfTVREStv0Ht7KRkukARxpH2E2H81nkHA53RHw8bABJXiHiwSKfMMP4pSJZC4zBbKN6NswPB0zNQGO7oyZJOT7KfQW872UBZ04vPtsofbOY0bF3S2M00Snv7tDlPdkIkx5l8iUopL8nfFBnTXxpJb4lJFpzGhwd2+Dk6X14T0WwrNTVULYt8RWl0xwGkH3IqD2nBZlZYGM2vx8UaZMQo+TKMsMvuwNOTSHQThdC6CqygZoLYinkmBDT/ZkiOyyvGwNAtJjpwPMTlMovvkBXKTneUnWjVGCGZfLyWvtQopaLYSyA617AL98dpG9wEQjMp3FCY72wRt0z2yK6R6gMO9jcWZGkOgjEmSetQtojqqak1n7NjGVsbXt8jiYJLJAVEJyy3XvWcgUNCQT2D4EbdTBER0nOudkdW0VD3apaJWy7CQXV7NtyhwP9w8oRd8mc9mUFgNDV3HqZgwdtTLN+MPj9S1vw2l5UOblGKkVHxMcWT0IdUGsPrsgXEwBtmMdE05D+KI42rHeJWNCoUQoF5mNro0u49BelgWVKW2wt0qpCkDxPaWQZJcFc04B8E8ITqJ5SVAvdRAHIHfz439f/+bF65ef3nz47M3nP/zvP371+p8/u37+I/i4+evfrj/6pV6mFkYjPI6IMmi0u7XltNYhznISks61VZ8YpoFQtJMT1R7mY2TuM2rQ6fU7jwa7KonkxAyuE64tr0rzOC2GQ70INZHaUjuLBC3ij7KkZMYVbimB+/LqckGq0mX+bUDti69effrVqz/fijYOKzoRd3t7o+l6b21UPMd1l+TyRkVeCfVFwFw43fWms9H0vJLwggw6hnsz9P25n/qh33KdbcdrOW6ewMM8kFcJLbKMphE+tRdwmtTRzUMeAuVxxlSBP4IjkrP1USgNTIh+/pM3f3lWkTLeNZSqFjBOFXk5mZ0NlOqD45E1PHx83OlZo95QxknBK8lp5V8jbGbPz1MlqBhLcfQtizD5VmI14HrQsOKJRXBwZs3hJJbOYSXYVlH1RPdUuWjloyROZ3pHSoCCukIyzyYrEStyjeIpfy4lnYK1Qlzbev33z1YBzEK6RbvnH+/vWlOWx6WioQpHk0p8c2o/+dfrLz54/fLlzYufX3/xg4oGM09+SYY4h9NUHuZhDynP1JsFCnoyVM48d75bqi+GKK8ZRzFlgvvuprphmBECqCu1qf9RfwolTylW/gL6AgW9i3nvSpiD7R8gu0oAO2cYqm1cXMRygs7hhV//89vf3fz6s5uPX7z54E/XH/7x+qOPv3r1+zfP/6BP3c2zFzc/fW6y/GIhULbI653u/Cz1WBBY8jRasnZbX77/C4vFwoKWw0pVRvry/U9KyqShqjkpNEMflxtSNWFJtAyWOKtkSm5DBZdDdAPQkSWslUuYIhbPaFBM8l5TqpLnTjG+0R81U06sGLqpb8JKqsIF+K44A9El9eiB47me4Wpr5BLGmJdc/yiKx9BkZAx1G18QqaC+HlDIqvkeDQ5324NCRBtxmIRweXfkk4L8QH2eNZVZeJUowIVmL0gj+WiyJLbMQtlXKXXZ5vVh0g5lylt9ea9IoE6aJLoJYubZepjOoAHO3qhu56uHu1LPe6D703IXXIz73SofxiUuFL8qWxIUX6Ujw9Kpqc/lQ4duYQ+ka4oh8CqPfeAO8zKtu6sL6CUTW+aaXpLEycqEU3AysX3oniGL2IXHcxlbTqk77bDYq4yQJbn8Q1/xzArjLomIqP1sm6H344t7Y2Hv60L7/DAKjTPrXTdytxQKym/XMlDqGtNOEmib5FtX7cfmAWXn/Xqr98kYtx6M193NbbJOWhvYDcj6VrC5PnkwnjhENo5Kqbx9ShXy5iLvbvUmgWaxCi8u18dw3a6pTTtYAeVdFDylDqRJ7PkY7dGEi6cyRZkvTTnJKSe6dX4q7dMfanzie1uaAAJ2eTK7YnWWX4T+mSOOBnRKa95XnSwJVZVAGMxmuresu6FQ8w7IFXS+JQ2Qrcffg3qm33HqaNOnCpJ8js90DdNxbXV2Bj4Cvgys+6F7IfRl90er3wxo9H8YoDqv+6roM05Pz0TdffW2t1tkk3hNbxIEzXUYNKEaj5shnmy7jjNphRuefO81yqE6UHJZcxJZUyiHe0V9nL3wq6//P1wX758uHgAA</t>
+          <t>NRwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkvJlvcaYgW52hEqWIcn1Oi/FiBxbrMmhyhna1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FNkrOWuzDWnHObM2fOdYzeuQ4D45LEzI/oXsWuWRWDUDfyfHq+V0n4WdXerrzjoM61S4IjHOOQcCA2gIuy3Wvm71WmnM92TfPq6qp2tVGL4nOzblm2+aTfG7lTEuKqTxnH1CWVjMt7O1fFQS0v7BOOPcyx4tyrdEfdWov4bhtgfUzxOYlrzYT5lDDWodznPmGCMyaYk1a7/z11MKde267ZyFyC55TNxA88RVeiVHBNB9uSsR8Sp27ZO1Vrp7phj61Hu/b27qZVq29uvZcyZoSohxkfkfjSdyVgxHE4k+zWzoZtPbK3Ny1kriQCWbkBHDQIvCG59BnxWiQI2FoWMfUFNlwOp17PmKBegVcLergKBzGeTcc+D8h6agz7TSOkWpdciIP2o5i4YL8HqXRIrgaxNut41gPseOrHfN7G87VlHTMSD2bCSOuxOqgdUd4ISMyPZ3DXxANXAITD44Qg8w5kztT2mQvfPk2I55zhgBWZSkh0EsUXbIZdcghxbAoZVzSIsAcOx33GfZflApYw6CiOZiASdm9GgbcPYrWKKxCZ6C4FG4t9m1F0sSi9jETyWuUFw6WGmKfkS3A0mkZXAxrMR8mEubE/IV67mVKvxCERkZq7lTAehaBFDkIKVoDM4R9E4CIYtYnrhzg4CsCKzNkAKSUAaiQ8OvN5KwqSkGbmXICiEzjRmFxnJ8zWaAC3S4XRI9qlKb0y80pUmWEYXWV7LiOkEQrgBnNTJ1tGLBK3AZZe3zJG3og45b4fQIEo3kUBWvaK0ZQQvtIlFAaJXLgvSo7TCAJk5ksEbgm+DWo4FlSNqvwZW9au/IFtMzTqUO9uuhSJDpNwMIH4vZQHcmzALYAQHCFoBpheAPTE59PDRqr6CgxSB76TfhmHIFJnAZ5LcGaUIgx1qRskHlEJoEvPpEcK3dQd3olGS6AehLSDMJ2P5zPIw8zf5fCxV4HKvMt4DLW/4rhRQnk8F5kCmZr0bTwsmVC5AQ7uzXMWkx8m0HLM9xPqtiLv/rt5yjrH1Of31zBKYpX+7s8irScSYcLaRKQUmeTvze+ucyYWr0UeUhJG1Hfvb20wstDee8BBWBpVBQ7zDt9qkzOcBNDUcKg953lZWQCjBrtYpCmC0HEcpJnBES0jg57R9cKaC1VV9EU1NwoFwIRW7WSEzCK9aA1c0qHnPUzPEyi+WQAuwrO8JOrGOMaUieNktXYhRa0mQmlAqx7AKcYuMheQaEzCWRTjoA/W8Pf1pejuAQpzH/OpXkGiD4ibWtbMWTOusjqptm8jkxlb6S7CQSeRBaAkEleuWtKcJochkcD64LRBCwf+JFY5J61rq3BwS3mrlGYncbg126bU8DCWQCn6LpmLXjVfaLj0UztFKK8VacYZDTd36lvWRh3KvFgjeeIhwYHRAVfnxOjSS8J4CGy7xpAw34MvHwe7xrtkQnwoEdJE+qLX5i7yof00C0pVGqBvGVImgOJ77kOSXSbMMDmDc0pwHMwLhOqovcgFutsf//vmN89fvfj89uOnb7784L//+NWrf/7s5tmH8HH717/dfPJLdUxFjMZ4EhCp0Li5s2NtbIKfZSAkjGvKPtFLXC5hp6eyPczWSI85ctHqdFsHvaZMIhkwZVcJ1xQT1DxK8uVIHUJuJK/UTD1BkTjjNCnpdQlbSOCOmGguSZm6iL+LUdni9cvPX7/8853c2mB5J2I/frxVtetvbVRgNrSX6LJGRUyKahBI59DNqrVVrdcLxAs0aAjjNPT9mZ26ngOj52OrvmHZWQL3MkdeRbSI0pLG+Nxc4FOglmoeMhcorlOkdPwxhEiGVqFQWGgX/fInb/7ytESlrashZSmgnCzyYjMzXUjRh8OxMRocD1sdY9wZCT/JcQU6JfwbiPXuWTyVnIrSBAffMQgVTyhGBcaDihGdGQS7U2MOkViIw5KzrYKqjR4oclHLgzhKZupGCgw5dAVllk1WcqzINRIn7bmUdHLUCnKl683fv1jFoA/Sztu97DWgCEMljAIV8DpqP/vXq68+evXixe3zn9989aOSBL1PNiSDn0M0FZeZ20PK0/VmAYJORtKYF9b3C/VFA8WYcRT5lDPH3pYThl4hYLWFNPkbdUMoeVKwtBfAFyDoXcw611wHtnOIzDIA9JxhqLZRPohlAJXDc7v+57e/u/31F7efPn/z0Z9uPv7jzSefvn75+zfP/qCi7vbp89ufPtNZfrEQSF3EeKc6P0M+FriGiEZD1G7j6/d/YdCIG9ByGInMSF+//1lBmFBUNie5ZOjjMkXKKiyRFpkFn1FQJdOhxJexqAagJUrYRkahi1g08918k/eqQpSIO4n4VndcTRgxIuimvg0nKRPnzPfl0yyqpB49sup2XWOVNuIIE8wKpj8Iogk0GSlCTuMLJCWub2bIaeV+B71Bs9HLSZQSg9iD4d0STwriA6UtpSgpXZauUlcrQAALjZ+bBOIBZYlsGZVJLqQxU79EnDU8kf5WD/IlCtRK4lg1RFS/bI+SGTTD6XvV3Xj5iFfofw9Vr1rsiPN1t13Gw7qAhUJYRguAxMvUpFEqTXWZePRQ7eyhME2+BFzp4Q/MoR+vVad1CX1lbIq804njKF6ZfHJMStaHThoyiplbPKORd6q6bi+/qxSQJrzsQ417+oRRmwSEr/eya+bc/ejywbxw9+uydtkg8LQx1xs9MrPkAorP28JR/t/XbeVsjTiGxkq8hq39HJ1Oq0MYctfURh1FMooJEHbX78X7fsz4E5EJ9JeCnGaQU9WhPhEDl/qQ61OnvqMAQGAWpZslNdPQ5eqPDFHQ80N/zbHQSuO7LARsOZupFq67nqeI0nJIrqHBLEiApDj5AZQN9VyyjjTlsJBLM37xssf88ylfV7FHE0w8MrGq7oTUq5uetVN9TMhG1bbhf+zW65a1Jd4FtXDIHD65WnMTM72w/I9/zv8AhF4YZzUcAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -671,37 +671,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>29</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6EFE0-38F4-4AF3-AED5-7BAF8B27D61B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>